--- a/5_Architecture/technologies.xlsx
+++ b/5_Architecture/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/5_Architecture/technologies.xlsx
+++ b/5_Architecture/technologies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Topic</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Rich web client</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
@@ -100,13 +97,28 @@
   </si>
   <si>
     <t>Java Persistence</t>
+  </si>
+  <si>
+    <t>Web Client</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>JBoss EAP 6.4.0</t>
+  </si>
+  <si>
+    <t>version 4.4</t>
+  </si>
+  <si>
+    <t>Java 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +139,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -178,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -186,6 +204,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,138 +507,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/5_Architecture/technologies.xlsx
+++ b/5_Architecture/technologies.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tech" sheetId="1" r:id="rId1"/>
+    <sheet name="JVS_NVS" sheetId="2" r:id="rId2"/>
+    <sheet name="NVS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Topic</t>
   </si>
@@ -112,13 +112,229 @@
   </si>
   <si>
     <t>Java 7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>platform independent</t>
+  </si>
+  <si>
+    <t>JVS</t>
+  </si>
+  <si>
+    <t>NVS</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>maint org today</t>
+  </si>
+  <si>
+    <t>Yes ?</t>
+  </si>
+  <si>
+    <t>Server's supported</t>
+  </si>
+  <si>
+    <t>Windows Server specific version</t>
+  </si>
+  <si>
+    <t>all ?</t>
+  </si>
+  <si>
+    <t>.NET</t>
+  </si>
+  <si>
+    <t>Java Platforms, Enterprise Edition</t>
+  </si>
+  <si>
+    <t>Software framework developed by Java Commutity process that runs many different servers linux,windows,mainframe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software framework developed by Microsoft that runs primarily on Microsoft Windows.</t>
+  </si>
+  <si>
+    <t>.NET Framework 4</t>
+  </si>
+  <si>
+    <t>C# 4.0</t>
+  </si>
+  <si>
+    <t>Visual Studio 2010</t>
+  </si>
+  <si>
+    <r>
+      <t>Windows Vista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Server 2008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Server 2008 R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Server 2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Server 2012 R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF252525"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +361,40 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -193,10 +443,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -206,8 +457,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,20 +767,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,13 +791,19 @@
       <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -546,8 +813,14 @@
       <c r="C3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -557,72 +830,114 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -632,29 +947,39 @@
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -665,24 +990,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="C10:F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip=".NET Framework 4.0" display="https://en.wikipedia.org/wiki/.NET_Framework_4.0"/>
+    <hyperlink ref="C2" r:id="rId2" tooltip="C Sharp 4.0" display="https://en.wikipedia.org/wiki/C_Sharp_4.0"/>
+    <hyperlink ref="D2" r:id="rId3" tooltip="Visual Studio 2010" display="https://en.wikipedia.org/wiki/Visual_Studio_2010"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/5_Architecture/technologies.xlsx
+++ b/5_Architecture/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tech" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>Topic</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>maint org today</t>
-  </si>
-  <si>
-    <t>Yes ?</t>
   </si>
   <si>
     <t>Server's supported</t>
@@ -328,6 +325,24 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>NVS 4</t>
+  </si>
+  <si>
+    <t>open source components</t>
+  </si>
+  <si>
+    <t>microsoft components</t>
+  </si>
+  <si>
+    <t>one-shop solution</t>
   </si>
 </sst>
 </file>
@@ -770,7 +785,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="C10:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,29 +1029,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,10 +1070,20 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1069,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,20 +1107,38 @@
     <col min="5" max="5" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/5_Architecture/technologies.xlsx
+++ b/5_Architecture/technologies.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Tech" sheetId="1" r:id="rId1"/>
     <sheet name="JVS_NVS" sheetId="2" r:id="rId2"/>
     <sheet name="NVS" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tech!$A$1:$E$21</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Topic</t>
   </si>
@@ -75,9 +79,6 @@
     <t>GIT</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>Programming Language</t>
   </si>
   <si>
@@ -87,15 +88,9 @@
     <t>JBOSS</t>
   </si>
   <si>
-    <t>Java script framework (backbone,,)</t>
-  </si>
-  <si>
     <t>Restful Services (jersey)</t>
   </si>
   <si>
-    <t>JPA (Java Persistence,hibernate)</t>
-  </si>
-  <si>
     <t>Java Persistence</t>
   </si>
   <si>
@@ -109,9 +104,6 @@
   </si>
   <si>
     <t>version 4.4</t>
-  </si>
-  <si>
-    <t>Java 7</t>
   </si>
   <si>
     <t>x</t>
@@ -343,6 +335,33 @@
   </si>
   <si>
     <t>one-shop solution</t>
+  </si>
+  <si>
+    <t>Java 8</t>
+  </si>
+  <si>
+    <t>Persistence framework</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>JPA (Java Persistence)</t>
+  </si>
+  <si>
+    <t>Java script framework (Angular,,)</t>
+  </si>
+  <si>
+    <t>JavaScript for Volvo Solutions (JSVS)</t>
+  </si>
+  <si>
+    <t>JSVS 1.2</t>
+  </si>
+  <si>
+    <t>Java Enterprise</t>
+  </si>
+  <si>
+    <t>Java EE 6</t>
   </si>
 </sst>
 </file>
@@ -782,15 +801,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
@@ -804,202 +823,244 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E21"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="http://confluence.it.volvo.net/display/UX/JSVS+1.2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1007,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,53 +1082,53 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1075,15 +1136,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1109,36 +1170,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1149,4 +1210,21 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="106.85546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5_Architecture/technologies.xlsx
+++ b/5_Architecture/technologies.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tech" sheetId="1" r:id="rId1"/>
     <sheet name="JVS_NVS" sheetId="2" r:id="rId2"/>
     <sheet name="NVS" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tech!$A$1:$E$21</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>Topic</t>
   </si>
@@ -44,9 +45,6 @@
   </si>
   <si>
     <t>XML-technologies (XML-schema,JAXB)</t>
-  </si>
-  <si>
-    <t>Rich web client</t>
   </si>
   <si>
     <t>Technology</t>
@@ -349,9 +347,6 @@
     <t>JPA (Java Persistence)</t>
   </si>
   <si>
-    <t>Java script framework (Angular,,)</t>
-  </si>
-  <si>
     <t>JavaScript for Volvo Solutions (JSVS)</t>
   </si>
   <si>
@@ -362,6 +357,70 @@
   </si>
   <si>
     <t>Java EE 6</t>
+  </si>
+  <si>
+    <t>compatibility</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Rich Web Client</t>
+  </si>
+  <si>
+    <t>Restful Services</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>Service layer</t>
+  </si>
+  <si>
+    <t>Rich Web Client
+(HTML,Java script framework)</t>
+  </si>
+  <si>
+    <t>Test Manager</t>
+  </si>
+  <si>
+    <t>JSVS</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>Windows Server</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Volvo Arch</t>
+  </si>
+  <si>
+    <t>Linux,Windows,,</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>EFACTS/PVT Manager</t>
+  </si>
+  <si>
+    <t>Test Manager 1</t>
+  </si>
+  <si>
+    <t>Test Manager 2</t>
+  </si>
+  <si>
+    <t>Java script framework (AngularJS)</t>
+  </si>
+  <si>
+    <t>Rich Web</t>
   </si>
 </sst>
 </file>
@@ -803,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,16 +879,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,178 +896,178 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,21 +1075,21 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,17 +1100,17 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1066,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B16:B17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,69 +1141,74 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1222,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,36 +1234,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1214,17 +1278,215 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A165"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="3" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" tooltip="C Sharp 4.0" display="https://en.wikipedia.org/wiki/C_Sharp_4.0"/>
+    <hyperlink ref="G4" r:id="rId2" tooltip="Visual Studio 2010" display="https://en.wikipedia.org/wiki/Visual_Studio_2010"/>
+    <hyperlink ref="G5" r:id="rId3" tooltip="Visual Studio 2010" display="https://en.wikipedia.org/wiki/Visual_Studio_2010"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>